--- a/K-Means_OD_ds.xlsx
+++ b/K-Means_OD_ds.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="K-Means_OD_ds" sheetId="1" r:id="rId1"/>
     <sheet name="Iterations" sheetId="3" r:id="rId2"/>
+    <sheet name="Cluster_output" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Iterations!$R$1:$T$25</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="62">
   <si>
     <t>Student.Name</t>
   </si>
@@ -190,6 +191,27 @@
   <si>
     <t>STOP</t>
   </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>C1 - Centroid 1</t>
+  </si>
+  <si>
+    <t>C2 - Centroid 2</t>
+  </si>
+  <si>
+    <t>D1 - Distance of the observation from C1</t>
+  </si>
+  <si>
+    <t>D2 - Distance of the observation from C2</t>
+  </si>
+  <si>
+    <t>Cluster 2</t>
+  </si>
+  <si>
+    <t>Cluster1</t>
+  </si>
 </sst>
 </file>
 
@@ -198,7 +220,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +395,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF92D050"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="40">
@@ -598,7 +639,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -863,98 +904,8 @@
       <right style="hair">
         <color theme="4"/>
       </right>
-      <top style="hair">
-        <color theme="4"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="4"/>
-      </left>
-      <right style="hair">
-        <color theme="4"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="4"/>
-      </left>
-      <right style="hair">
-        <color theme="4"/>
-      </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="4"/>
-      </left>
-      <right style="hair">
-        <color theme="4"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color theme="4"/>
-      </right>
-      <top style="hair">
-        <color theme="4"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="4"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color theme="4"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -979,115 +930,11 @@
       <left style="hair">
         <color theme="4"/>
       </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color theme="4"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="4"/>
-      </left>
-      <right style="hair">
-        <color theme="8" tint="-0.249977111117893"/>
-      </right>
-      <top style="hair">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="8" tint="-0.249977111117893"/>
-      </left>
-      <right style="hair">
-        <color theme="4"/>
-      </right>
-      <top style="hair">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color theme="8" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="4"/>
-      </left>
       <right/>
       <top style="hair">
         <color theme="4"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color theme="4"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1143,28 +990,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color theme="4"/>
-      </left>
-      <right style="hair">
-        <color theme="8" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="8" tint="-0.249977111117893"/>
-      </left>
-      <right style="hair">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1210,7 +1035,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1223,11 +1048,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1286,83 +1111,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1370,38 +1121,32 @@
     <xf numFmtId="0" fontId="21" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1417,6 +1162,74 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="36" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="36" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="87"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="87"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1481,1138 +1294,50 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="1"/>
-              <a:t>Total</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
-              <a:t> and PCM Marks</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'K-Means_OD_ds'!$E$2:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>680</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>679</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>708</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>672</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>672</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>668</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>716</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>712</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>728</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>740</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>732</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>732</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>708</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>752</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>716</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>732</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>720</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'K-Means_OD_ds'!$F$2:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>448</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>448</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>464</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>536</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>544</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>544</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>552</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>568</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>576</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>576</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>584</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>584</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>608</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>616</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>672</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>704</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6A3B-4D48-BA55-73249EB2B3B8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="366241840"/>
-        <c:axId val="380370240"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="366241840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Total</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="380370240"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="380370240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>PCM</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="366241840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>587373</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>416987</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>264584</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>16937</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66032</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>37579</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F8DFEDF-FFAC-4147-94B3-B8DA4DDAD247}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80C348B-D366-4E40-BD6D-2E12BA73095B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457575" y="381000"/>
+          <a:ext cx="5142857" cy="4171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2918,7 +1643,7 @@
   <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3627,7 +2352,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3636,7 +2360,7 @@
   <dimension ref="A1:BF136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3648,22 +2372,24 @@
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="7" width="8.85546875" customWidth="1"/>
     <col min="8" max="8" width="5.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.140625" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.140625" customWidth="1"/>
     <col min="17" max="17" width="7.42578125" customWidth="1"/>
     <col min="18" max="18" width="6.85546875" customWidth="1"/>
-    <col min="19" max="19" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.5703125" customWidth="1"/>
-    <col min="21" max="21" width="6.42578125" customWidth="1"/>
-    <col min="22" max="22" width="6.140625" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" customWidth="1"/>
+    <col min="25" max="25" width="8" customWidth="1"/>
+    <col min="26" max="26" width="7.7109375" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" customWidth="1"/>
     <col min="29" max="29" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3737,31 +2463,31 @@
       <c r="W1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A2" s="67">
+      <c r="A2" s="41">
         <v>680</v>
       </c>
-      <c r="B2" s="68">
+      <c r="B2" s="42">
         <v>440</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="56">
         <f t="shared" ref="C2:C21" si="0">SQRT((A2-$C$25)^2+(B2-$D$25)^2)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="56">
         <f t="shared" ref="D2:D21" si="1">SQRT((A2-$C$28)^2+(B2-$D$28)^2)</f>
         <v>267.01310829245818</v>
       </c>
@@ -3769,11 +2495,11 @@
         <f>IF(C2&lt;D2,1,2)</f>
         <v>1</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="57">
         <f>SQRT((A2-$F$25)^2+(B2-$G$25)^2)</f>
-        <v>69.740072311049488</v>
-      </c>
-      <c r="G2" s="14">
+        <v>70.505670600150012</v>
+      </c>
+      <c r="G2" s="57">
         <f>SQRT((A2-$F$28)^2+(B2-$G$28)^2)</f>
         <v>184.37749789059151</v>
       </c>
@@ -3781,11 +2507,11 @@
         <f>IF(F2&lt;G2,1,2)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="56">
         <f>SQRT((A2-$I$25)^2+(B2-$J$25)^2)</f>
-        <v>63.329692877827888</v>
-      </c>
-      <c r="J2" s="12">
+        <v>64.148031926162801</v>
+      </c>
+      <c r="J2" s="56">
         <f>SQRT((A2-$I$28)^2+(B2-$J$28)^2)</f>
         <v>179.34280024578624</v>
       </c>
@@ -3793,11 +2519,11 @@
         <f>IF(I2&lt;J2,1,2)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="57">
         <f>SQRT((A2-$L$25)^2+(B2-$M$25)^2)</f>
-        <v>56.378898950880355</v>
-      </c>
-      <c r="M2" s="14">
+        <v>57.234302931884855</v>
+      </c>
+      <c r="M2" s="57">
         <f>SQRT((A2-$L$28)^2+(B2-$M$28)^2)</f>
         <v>174.52424113515477</v>
       </c>
@@ -3805,11 +2531,11 @@
         <f>IF(L2&lt;M2,1,2)</f>
         <v>1</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="56">
         <f>SQRT((A2-$O$25)^2+(B2-$P$25)^2)</f>
-        <v>48.906958860677484</v>
-      </c>
-      <c r="P2" s="12">
+        <v>49.828612513294004</v>
+      </c>
+      <c r="P2" s="56">
         <f>SQRT((A2-$O$28)^2+(B2-$P$28)^2)</f>
         <v>169.68729409645789</v>
       </c>
@@ -3817,11 +2543,11 @@
         <f>IF(O2&lt;P2,1,2)</f>
         <v>1</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="57">
         <f t="shared" ref="R2:R21" si="2">SQRT(($A2-$R$25)^2+($B2-$S$25)^2)</f>
-        <v>40.386146341617327</v>
-      </c>
-      <c r="S2" s="14">
+        <v>41.265936933752123</v>
+      </c>
+      <c r="S2" s="57">
         <f t="shared" ref="S2:S21" si="3">SQRT(($A2-$R$28)^2+($B2-$S$28)^2)</f>
         <v>165.08631416401647</v>
       </c>
@@ -3829,13 +2555,13 @@
         <f t="shared" ref="T2:T21" si="4">IF(R2&lt;S2,1,2)</f>
         <v>1</v>
       </c>
-      <c r="U2" s="12">
+      <c r="U2" s="56">
         <f>SQRT(($A2-$U$25)^2+($B2-$V$25)^2)</f>
-        <v>30.667119561873157</v>
-      </c>
-      <c r="V2" s="12">
+        <v>16.150541786577943</v>
+      </c>
+      <c r="V2" s="56">
         <f>SQRT(($A2-$U$28)^2+($B2-$V$28)^2)</f>
-        <v>160.67434424312799</v>
+        <v>156.99398431504022</v>
       </c>
       <c r="W2" s="12">
         <f t="shared" ref="W2:W21" si="5">IF(U2&lt;V2,1,2)</f>
@@ -3855,17 +2581,17 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A3" s="67">
+      <c r="A3" s="41">
         <v>679</v>
       </c>
-      <c r="B3" s="68">
+      <c r="B3" s="42">
         <v>448</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="56">
         <f t="shared" si="0"/>
         <v>8.0622577482985491</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="56">
         <f t="shared" si="1"/>
         <v>259.26241532470533</v>
       </c>
@@ -3873,11 +2599,11 @@
         <f t="shared" ref="E3:E21" si="6">IF(C3&lt;D3,1,2)</f>
         <v>1</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="57">
         <f t="shared" ref="F3:F21" si="7">SQRT((A3-$F$25)^2+(B3-$G$25)^2)</f>
-        <v>62.293626221055661</v>
-      </c>
-      <c r="G3" s="14">
+        <v>63.195616544292221</v>
+      </c>
+      <c r="G3" s="57">
         <f t="shared" ref="G3:G21" si="8">SQRT((A3-$F$28)^2+(B3-$G$28)^2)</f>
         <v>176.95591276283596</v>
       </c>
@@ -3885,11 +2611,11 @@
         <f t="shared" ref="H3:H21" si="9">IF(F3&lt;G3,1,2)</f>
         <v>1</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="56">
         <f t="shared" ref="I3:I21" si="10">SQRT((A3-$I$25)^2+(B3-$J$25)^2)</f>
-        <v>55.852036668325745</v>
-      </c>
-      <c r="J3" s="12">
+        <v>56.834584541456813</v>
+      </c>
+      <c r="J3" s="56">
         <f t="shared" ref="J3:J21" si="11">SQRT((A3-$I$28)^2+(B3-$J$28)^2)</f>
         <v>171.93033472892441</v>
       </c>
@@ -3897,11 +2623,11 @@
         <f t="shared" ref="K3:K21" si="12">IF(I3&lt;J3,1,2)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="57">
         <f t="shared" ref="L3:L21" si="13">SQRT((A3-$L$25)^2+(B3-$M$25)^2)</f>
-        <v>48.842402141106646</v>
-      </c>
-      <c r="M3" s="14">
+        <v>49.898662739695489</v>
+      </c>
+      <c r="M3" s="57">
         <f t="shared" ref="M3:M21" si="14">SQRT((A3-$L$28)^2+(B3-$M$28)^2)</f>
         <v>167.12347590433581</v>
       </c>
@@ -3909,11 +2635,11 @@
         <f t="shared" ref="N3:N21" si="15">IF(L3&lt;M3,1,2)</f>
         <v>1</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="56">
         <f t="shared" ref="O3:O21" si="16">SQRT((A3-$O$25)^2+(B3-$P$25)^2)</f>
-        <v>41.323608567016507</v>
-      </c>
-      <c r="P3" s="12">
+        <v>42.504595339798257</v>
+      </c>
+      <c r="P3" s="56">
         <f t="shared" ref="P3:P21" si="17">SQRT((A3-$O$28)^2+(B3-$P$28)^2)</f>
         <v>162.28815250795253</v>
       </c>
@@ -3921,11 +2647,11 @@
         <f t="shared" ref="Q3:Q21" si="18">IF(O3&lt;P3,1,2)</f>
         <v>1</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="57">
         <f t="shared" si="2"/>
-        <v>32.667777296127561</v>
-      </c>
-      <c r="S3" s="14">
+        <v>33.884557918115469</v>
+      </c>
+      <c r="S3" s="57">
         <f t="shared" si="3"/>
         <v>157.69795487074074</v>
       </c>
@@ -3933,13 +2659,13 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U3" s="12">
+      <c r="U3" s="56">
         <f t="shared" ref="U3:U21" si="19">SQRT(($A3-$U$25)^2+($B3-$V$25)^2)</f>
-        <v>22.681980121281807</v>
-      </c>
-      <c r="V3" s="12">
+        <v>8.6162636914152237</v>
+      </c>
+      <c r="V3" s="56">
         <f t="shared" ref="V3:V21" si="20">SQRT(($A3-$U$28)^2+($B3-$V$28)^2)</f>
-        <v>153.3048849681642</v>
+        <v>149.61142261798651</v>
       </c>
       <c r="W3" s="12">
         <f t="shared" si="5"/>
@@ -3947,7 +2673,9 @@
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
+      <c r="Z3" s="45" t="s">
+        <v>55</v>
+      </c>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
@@ -3959,17 +2687,17 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A4" s="67">
+      <c r="A4" s="41">
         <v>708</v>
       </c>
-      <c r="B4" s="68">
+      <c r="B4" s="42">
         <v>448</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="56">
         <f t="shared" si="0"/>
         <v>29.120439557122072</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="56">
         <f t="shared" si="1"/>
         <v>256.28109567426156</v>
       </c>
@@ -3977,11 +2705,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="57">
         <f t="shared" si="7"/>
-        <v>60.642360341337259</v>
-      </c>
-      <c r="G4" s="14">
+        <v>60.182710787118502</v>
+      </c>
+      <c r="G4" s="57">
         <f t="shared" si="8"/>
         <v>171.05800041556915</v>
       </c>
@@ -3989,11 +2717,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="56">
         <f t="shared" si="10"/>
-        <v>55.225447033048098</v>
-      </c>
-      <c r="J4" s="12">
+        <v>54.543285562936184</v>
+      </c>
+      <c r="J4" s="56">
         <f t="shared" si="11"/>
         <v>166.00915637397833</v>
       </c>
@@ -4001,11 +2729,11 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="57">
         <f t="shared" si="13"/>
-        <v>49.789805094597646</v>
-      </c>
-      <c r="M4" s="14">
+        <v>48.755499848038646</v>
+      </c>
+      <c r="M4" s="57">
         <f t="shared" si="14"/>
         <v>161.1565636780858</v>
       </c>
@@ -4013,11 +2741,11 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="56">
         <f t="shared" si="16"/>
-        <v>44.123583546670368</v>
-      </c>
-      <c r="P4" s="12">
+        <v>42.589794845713918</v>
+      </c>
+      <c r="P4" s="56">
         <f t="shared" si="17"/>
         <v>156.37277398717609</v>
       </c>
@@ -4025,11 +2753,11 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="57">
         <f t="shared" si="2"/>
-        <v>39.077369618828378</v>
-      </c>
-      <c r="S4" s="14">
+        <v>36.645293709020933</v>
+      </c>
+      <c r="S4" s="57">
         <f t="shared" si="3"/>
         <v>151.75065190973504</v>
       </c>
@@ -4037,13 +2765,13 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="56">
         <f t="shared" si="19"/>
-        <v>36.154375791719701</v>
-      </c>
-      <c r="V4" s="12">
+        <v>27.011849251763522</v>
+      </c>
+      <c r="V4" s="56">
         <f t="shared" si="20"/>
-        <v>147.25377234348792</v>
+        <v>143.73927013094843</v>
       </c>
       <c r="W4" s="12">
         <f t="shared" si="5"/>
@@ -4051,7 +2779,9 @@
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
+      <c r="Z4" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -4086,17 +2816,17 @@
       <c r="BF4" s="1"/>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A5" s="67">
+      <c r="A5" s="41">
         <v>672</v>
       </c>
-      <c r="B5" s="68">
+      <c r="B5" s="42">
         <v>464</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="56">
         <f t="shared" si="0"/>
         <v>25.298221281347036</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="56">
         <f t="shared" si="1"/>
         <v>244.75293665245368</v>
       </c>
@@ -4104,11 +2834,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="57">
         <f t="shared" si="7"/>
-        <v>50.29047853624936</v>
-      </c>
-      <c r="G5" s="14">
+        <v>51.798162001917177</v>
+      </c>
+      <c r="G5" s="57">
         <f t="shared" si="8"/>
         <v>163.96325996174866</v>
       </c>
@@ -4116,11 +2846,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="56">
         <f t="shared" si="10"/>
-        <v>43.920951720107382</v>
-      </c>
-      <c r="J5" s="12">
+        <v>45.657091453573791</v>
+      </c>
+      <c r="J5" s="56">
         <f t="shared" si="11"/>
         <v>158.98880463730768</v>
       </c>
@@ -4128,11 +2858,11 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="57">
         <f t="shared" si="13"/>
-        <v>36.925182948801606</v>
-      </c>
-      <c r="M5" s="14">
+        <v>38.955656968873498</v>
+      </c>
+      <c r="M5" s="57">
         <f t="shared" si="14"/>
         <v>154.24355539264934</v>
       </c>
@@ -4140,11 +2870,11 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="56">
         <f t="shared" si="16"/>
-        <v>29.629219108845916</v>
-      </c>
-      <c r="P5" s="12">
+        <v>32.138615791598738</v>
+      </c>
+      <c r="P5" s="56">
         <f t="shared" si="17"/>
         <v>149.43151534324272</v>
       </c>
@@ -4152,11 +2882,11 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="57">
         <f t="shared" si="2"/>
-        <v>20.980554651137975</v>
-      </c>
-      <c r="S5" s="14">
+        <v>24.190148104261812</v>
+      </c>
+      <c r="S5" s="57">
         <f t="shared" si="3"/>
         <v>144.90086388641572</v>
       </c>
@@ -4164,13 +2894,13 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="56">
         <f t="shared" si="19"/>
-        <v>10.286182749473022</v>
-      </c>
-      <c r="V5" s="12">
+        <v>12.963024338479078</v>
+      </c>
+      <c r="V5" s="56">
         <f t="shared" si="20"/>
-        <v>140.59959067493475</v>
+        <v>136.87041722414344</v>
       </c>
       <c r="W5" s="12">
         <f t="shared" si="5"/>
@@ -4178,7 +2908,9 @@
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
+      <c r="Z5" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
@@ -4213,17 +2945,17 @@
       <c r="BF5" s="1"/>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A6" s="67">
+      <c r="A6" s="41">
         <v>672</v>
       </c>
-      <c r="B6" s="68">
+      <c r="B6" s="42">
         <v>480</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="56">
         <f t="shared" si="0"/>
         <v>40.792156108742276</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="56">
         <f t="shared" si="1"/>
         <v>229.08513701242165</v>
       </c>
@@ -4231,11 +2963,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="57">
         <f t="shared" si="7"/>
-        <v>37.266185678726522</v>
-      </c>
-      <c r="G6" s="14">
+        <v>39.277041008879742</v>
+      </c>
+      <c r="G6" s="57">
         <f t="shared" si="8"/>
         <v>149.06059750448836</v>
       </c>
@@ -4243,11 +2975,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="56">
         <f t="shared" si="10"/>
-        <v>31.334485794408739</v>
-      </c>
-      <c r="J6" s="12">
+        <v>33.724916604789399</v>
+      </c>
+      <c r="J6" s="56">
         <f t="shared" si="11"/>
         <v>144.12439071857335</v>
       </c>
@@ -4255,11 +2987,11 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="57">
         <f t="shared" si="13"/>
-        <v>24.978262154259529</v>
-      </c>
-      <c r="M6" s="14">
+        <v>27.892430054066416</v>
+      </c>
+      <c r="M6" s="57">
         <f t="shared" si="14"/>
         <v>139.42408106265319</v>
       </c>
@@ -4267,11 +2999,11 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="56">
         <f t="shared" si="16"/>
-        <v>19.128267694697289</v>
-      </c>
-      <c r="P6" s="12">
+        <v>22.823028392393503</v>
+      </c>
+      <c r="P6" s="56">
         <f t="shared" si="17"/>
         <v>134.63696041990519</v>
       </c>
@@ -4279,11 +3011,11 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="57">
         <f t="shared" si="2"/>
-        <v>13.571428571428555</v>
-      </c>
-      <c r="S6" s="14">
+        <v>18.14285714285711</v>
+      </c>
+      <c r="S6" s="57">
         <f t="shared" si="3"/>
         <v>130.15239133574994</v>
       </c>
@@ -4291,13 +3023,13 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U6" s="12">
+      <c r="U6" s="56">
         <f t="shared" si="19"/>
-        <v>12.184917817622836</v>
-      </c>
-      <c r="V6" s="12">
+        <v>26.077576574520894</v>
+      </c>
+      <c r="V6" s="56">
         <f t="shared" si="20"/>
-        <v>125.91704428240183</v>
+        <v>122.17873973995819</v>
       </c>
       <c r="W6" s="12">
         <f t="shared" si="5"/>
@@ -4305,7 +3037,9 @@
       </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="Z6" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
@@ -4340,17 +3074,17 @@
       <c r="BF6" s="1"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A7" s="67">
+      <c r="A7" s="41">
         <v>720</v>
       </c>
-      <c r="B7" s="68">
+      <c r="B7" s="42">
         <v>536</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="56">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="56">
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
@@ -4358,11 +3092,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="57">
         <f t="shared" si="7"/>
-        <v>36.517062693603869</v>
-      </c>
-      <c r="G7" s="14">
+        <v>34.758315492379232</v>
+      </c>
+      <c r="G7" s="57">
         <f t="shared" si="8"/>
         <v>82.259451031177107</v>
       </c>
@@ -4370,11 +3104,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="56">
         <f t="shared" si="10"/>
-        <v>42.701873495199202</v>
-      </c>
-      <c r="J7" s="12">
+        <v>40.887284086864945</v>
+      </c>
+      <c r="J7" s="56">
         <f t="shared" si="11"/>
         <v>77.215542476887336</v>
       </c>
@@ -4382,11 +3116,11 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="57">
         <f t="shared" si="13"/>
-        <v>49.619913366199427</v>
-      </c>
-      <c r="M7" s="14">
+        <v>47.695665874478344</v>
+      </c>
+      <c r="M7" s="57">
         <f t="shared" si="14"/>
         <v>72.366377289342537</v>
       </c>
@@ -4394,11 +3128,11 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="56">
         <f t="shared" si="16"/>
-        <v>56.937602908798333</v>
-      </c>
-      <c r="P7" s="12">
+        <v>54.88980438114168</v>
+      </c>
+      <c r="P7" s="56">
         <f t="shared" si="17"/>
         <v>67.600131492311334</v>
       </c>
@@ -4406,11 +3140,11 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="57">
         <f t="shared" si="2"/>
-        <v>65.736797386336406</v>
-      </c>
-      <c r="S7" s="14">
+        <v>63.462185430316211</v>
+      </c>
+      <c r="S7" s="57">
         <f t="shared" si="3"/>
         <v>62.986802412144264</v>
       </c>
@@ -4418,13 +3152,13 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="56">
         <f t="shared" si="19"/>
-        <v>76.692930284059102</v>
-      </c>
-      <c r="V7" s="12">
+        <v>88.480732365865947</v>
+      </c>
+      <c r="V7" s="56">
         <f t="shared" si="20"/>
-        <v>58.487745096991198</v>
+        <v>55.026458282458137</v>
       </c>
       <c r="W7" s="12">
         <f t="shared" si="5"/>
@@ -4432,7 +3166,9 @@
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
+      <c r="Z7" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
@@ -4467,95 +3203,95 @@
       <c r="BF7" s="1"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A8" s="67">
-        <v>668</v>
-      </c>
-      <c r="B8" s="68">
+      <c r="A8" s="41">
+        <v>700</v>
+      </c>
+      <c r="B8" s="42">
         <v>544</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="56">
         <f t="shared" si="0"/>
-        <v>104.6900186264192</v>
-      </c>
-      <c r="D8" s="12">
+        <v>105.90561835898981</v>
+      </c>
+      <c r="D8" s="56">
         <f t="shared" si="1"/>
-        <v>168.23792675850473</v>
+        <v>161.24515496597098</v>
       </c>
       <c r="E8" s="12">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="57">
         <f t="shared" si="7"/>
-        <v>46.5114399861666</v>
-      </c>
-      <c r="G8" s="14">
+        <v>36.363749999822453</v>
+      </c>
+      <c r="G8" s="57">
         <f t="shared" si="8"/>
-        <v>95.658858889026206</v>
+        <v>79.232117194113499</v>
       </c>
       <c r="H8" s="14">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="56">
         <f t="shared" si="10"/>
-        <v>50.106386818448613</v>
-      </c>
-      <c r="J8" s="12">
+        <v>42.451972863460639</v>
+      </c>
+      <c r="J8" s="56">
         <f t="shared" si="11"/>
-        <v>91.287677153052783</v>
+        <v>74.279472265222736</v>
       </c>
       <c r="K8" s="12">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="57">
         <f t="shared" si="13"/>
-        <v>54.413256373201982</v>
-      </c>
-      <c r="M8" s="14">
+        <v>49.100677624752585</v>
+      </c>
+      <c r="M8" s="57">
         <f t="shared" si="14"/>
-        <v>87.231050654839095</v>
+        <v>69.568682989492913</v>
       </c>
       <c r="N8" s="14">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="56">
         <f t="shared" si="16"/>
-        <v>59.940725929871753</v>
-      </c>
-      <c r="P8" s="12">
+        <v>56.39051892827375</v>
+      </c>
+      <c r="P8" s="56">
         <f t="shared" si="17"/>
-        <v>82.972552355851079</v>
+        <v>64.779969469307787</v>
       </c>
       <c r="Q8" s="12">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="57">
         <f t="shared" si="2"/>
-        <v>66.368329058676892</v>
-      </c>
-      <c r="S8" s="14">
+        <v>64.754638948156625</v>
+      </c>
+      <c r="S8" s="57">
         <f t="shared" si="3"/>
-        <v>79.215084332460421</v>
+        <v>60.30141254588969</v>
       </c>
       <c r="T8" s="14">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U8" s="12">
+        <v>2</v>
+      </c>
+      <c r="U8" s="56">
         <f t="shared" si="19"/>
-        <v>74.281932901315599</v>
-      </c>
-      <c r="V8" s="12">
+        <v>89.782180860123901</v>
+      </c>
+      <c r="V8" s="56">
         <f t="shared" si="20"/>
-        <v>75.903805932917805</v>
+        <v>52.354348222261109</v>
       </c>
       <c r="W8" s="12">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
@@ -4594,17 +3330,17 @@
       <c r="BF8" s="1"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A9" s="67">
+      <c r="A9" s="41">
         <v>716</v>
       </c>
-      <c r="B9" s="68">
+      <c r="B9" s="42">
         <v>544</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="56">
         <f t="shared" si="0"/>
         <v>110.05453193758083</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="56">
         <f t="shared" si="1"/>
         <v>160.04999218994044</v>
       </c>
@@ -4612,11 +3348,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="57">
         <f t="shared" si="7"/>
-        <v>41.028210411700599</v>
-      </c>
-      <c r="G9" s="14">
+        <v>39.76470048873346</v>
+      </c>
+      <c r="G9" s="57">
         <f t="shared" si="8"/>
         <v>74.895153051564634</v>
       </c>
@@ -4624,11 +3360,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="56">
         <f t="shared" si="10"/>
-        <v>47.449446782865614</v>
-      </c>
-      <c r="J9" s="12">
+        <v>46.101735325256456</v>
+      </c>
+      <c r="J9" s="56">
         <f t="shared" si="11"/>
         <v>69.838671235927691</v>
       </c>
@@ -4636,11 +3372,11 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="57">
         <f t="shared" si="13"/>
-        <v>54.511183584678022</v>
-      </c>
-      <c r="M9" s="14">
+        <v>53.034463521258104</v>
+      </c>
+      <c r="M9" s="57">
         <f t="shared" si="14"/>
         <v>64.985185851586891</v>
       </c>
@@ -4648,11 +3384,11 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="56">
         <f t="shared" si="16"/>
-        <v>62.007182043695551</v>
-      </c>
-      <c r="P9" s="12">
+        <v>60.397770033338155</v>
+      </c>
+      <c r="P9" s="56">
         <f t="shared" si="17"/>
         <v>60.170129170913775</v>
       </c>
@@ -4660,11 +3396,11 @@
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="57">
         <f t="shared" si="2"/>
-        <v>70.865350907080639</v>
-      </c>
-      <c r="S9" s="14">
+        <v>69.026022895243614</v>
+      </c>
+      <c r="S9" s="57">
         <f t="shared" si="3"/>
         <v>55.541657696228022</v>
       </c>
@@ -4672,13 +3408,13 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="U9" s="12">
+      <c r="U9" s="56">
         <f t="shared" si="19"/>
-        <v>81.76677537701697</v>
-      </c>
-      <c r="V9" s="12">
+        <v>94.267916069042272</v>
+      </c>
+      <c r="V9" s="56">
         <f t="shared" si="20"/>
-        <v>51.059788883389757</v>
+        <v>47.482394398111111</v>
       </c>
       <c r="W9" s="12">
         <f t="shared" si="5"/>
@@ -4721,17 +3457,17 @@
       <c r="BF9" s="1"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A10" s="67">
+      <c r="A10" s="41">
         <v>712</v>
       </c>
-      <c r="B10" s="68">
+      <c r="B10" s="42">
         <v>552</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="56">
         <f t="shared" si="0"/>
         <v>116.48175822848829</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="56">
         <f t="shared" si="1"/>
         <v>152.21038072352357</v>
       </c>
@@ -4739,11 +3475,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="57">
         <f t="shared" si="7"/>
-        <v>46.830889714001373</v>
-      </c>
-      <c r="G10" s="14">
+        <v>45.981760667133969</v>
+      </c>
+      <c r="G10" s="57">
         <f t="shared" si="8"/>
         <v>67.911343804138923</v>
       </c>
@@ -4751,11 +3487,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="56">
         <f t="shared" si="10"/>
-        <v>53.286489844987877</v>
-      </c>
-      <c r="J10" s="12">
+        <v>52.335169819156967</v>
+      </c>
+      <c r="J10" s="56">
         <f t="shared" si="11"/>
         <v>62.870024654043156</v>
       </c>
@@ -4763,11 +3499,11 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="57">
         <f t="shared" si="13"/>
-        <v>60.339062547704572</v>
-      </c>
-      <c r="M10" s="14">
+        <v>59.248899557421609</v>
+      </c>
+      <c r="M10" s="57">
         <f t="shared" si="14"/>
         <v>58.045294368683386</v>
       </c>
@@ -4775,11 +3511,11 @@
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="56">
         <f t="shared" si="16"/>
-        <v>67.881445366167625</v>
-      </c>
-      <c r="P10" s="12">
+        <v>66.655012002099284</v>
+      </c>
+      <c r="P10" s="56">
         <f t="shared" si="17"/>
         <v>53.208186504626475</v>
       </c>
@@ -4787,11 +3523,11 @@
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="57">
         <f t="shared" si="2"/>
-        <v>76.697258019795612</v>
-      </c>
-      <c r="S10" s="14">
+        <v>75.244499426054745</v>
+      </c>
+      <c r="S10" s="57">
         <f t="shared" si="3"/>
         <v>48.604672627057454</v>
       </c>
@@ -4799,13 +3535,13 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="U10" s="12">
+      <c r="U10" s="56">
         <f t="shared" si="19"/>
-        <v>87.463166850712355</v>
-      </c>
-      <c r="V10" s="12">
+        <v>100.5188539528779</v>
+      </c>
+      <c r="V10" s="56">
         <f t="shared" si="20"/>
-        <v>44.197146458816157</v>
+        <v>40.512275231643571</v>
       </c>
       <c r="W10" s="12">
         <f t="shared" si="5"/>
@@ -4848,17 +3584,17 @@
       <c r="BF10" s="1"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A11" s="67">
+      <c r="A11" s="41">
         <v>720</v>
       </c>
-      <c r="B11" s="68">
+      <c r="B11" s="42">
         <v>560</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="56">
         <f t="shared" si="0"/>
         <v>126.49110640673517</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="56">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
@@ -4866,11 +3602,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="57">
         <f t="shared" si="7"/>
-        <v>57.192223363173611</v>
-      </c>
-      <c r="G11" s="14">
+        <v>56.085604581945233</v>
+      </c>
+      <c r="G11" s="57">
         <f t="shared" si="8"/>
         <v>58.457539724292971</v>
       </c>
@@ -4878,11 +3614,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="56">
         <f t="shared" si="10"/>
-        <v>63.644716984208479</v>
-      </c>
-      <c r="J11" s="12">
+        <v>62.441732839504049</v>
+      </c>
+      <c r="J11" s="56">
         <f t="shared" si="11"/>
         <v>53.40262165849159</v>
       </c>
@@ -4890,11 +3626,11 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="57">
         <f t="shared" si="13"/>
-        <v>70.716352204676141</v>
-      </c>
-      <c r="M11" s="14">
+        <v>69.379703155004535</v>
+      </c>
+      <c r="M11" s="57">
         <f t="shared" si="14"/>
         <v>48.54783787135603</v>
       </c>
@@ -4902,11 +3638,11 @@
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="56">
         <f t="shared" si="16"/>
-        <v>78.242511622518862</v>
-      </c>
-      <c r="P11" s="12">
+        <v>76.765165439800882</v>
+      </c>
+      <c r="P11" s="56">
         <f t="shared" si="17"/>
         <v>43.746745910727817</v>
       </c>
@@ -4914,11 +3650,11 @@
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="57">
         <f t="shared" si="2"/>
-        <v>87.093780091417813</v>
-      </c>
-      <c r="S11" s="14">
+        <v>85.3899817284899</v>
+      </c>
+      <c r="S11" s="57">
         <f t="shared" si="3"/>
         <v>39.120508703024662</v>
       </c>
@@ -4926,13 +3662,13 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="U11" s="12">
+      <c r="U11" s="56">
         <f t="shared" si="19"/>
-        <v>97.947973718477456</v>
-      </c>
-      <c r="V11" s="12">
+        <v>110.65640514674239</v>
+      </c>
+      <c r="V11" s="56">
         <f t="shared" si="20"/>
-        <v>34.628052801396876</v>
+        <v>31.098410105841552</v>
       </c>
       <c r="W11" s="12">
         <f t="shared" si="5"/>
@@ -4975,17 +3711,17 @@
       <c r="BF11" s="1"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A12" s="67">
+      <c r="A12" s="41">
         <v>720</v>
       </c>
-      <c r="B12" s="68">
+      <c r="B12" s="42">
         <v>568</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="56">
         <f t="shared" si="0"/>
         <v>134.10443691392169</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="56">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
@@ -4993,11 +3729,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="57">
         <f t="shared" si="7"/>
-        <v>64.596970478818307</v>
-      </c>
-      <c r="G12" s="14">
+        <v>63.619283422092224</v>
+      </c>
+      <c r="G12" s="57">
         <f t="shared" si="8"/>
         <v>50.565200545165894</v>
       </c>
@@ -5005,11 +3741,11 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="56">
         <f t="shared" si="10"/>
-        <v>71.056667526700082</v>
-      </c>
-      <c r="J12" s="12">
+        <v>69.981211764301406</v>
+      </c>
+      <c r="J12" s="56">
         <f t="shared" si="11"/>
         <v>45.508680490649205</v>
       </c>
@@ -5017,11 +3753,11 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="57">
         <f t="shared" si="13"/>
-        <v>78.12185796150797</v>
-      </c>
-      <c r="M12" s="14">
+        <v>76.914013236202734</v>
+      </c>
+      <c r="M12" s="57">
         <f t="shared" si="14"/>
         <v>40.655781409087083</v>
       </c>
@@ -5029,11 +3765,11 @@
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="56">
         <f t="shared" si="16"/>
-        <v>85.661488575672095</v>
-      </c>
-      <c r="P12" s="12">
+        <v>84.314237380172045</v>
+      </c>
+      <c r="P12" s="56">
         <f t="shared" si="17"/>
         <v>35.839146815241669</v>
       </c>
@@ -5041,11 +3777,11 @@
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="57">
         <f t="shared" si="2"/>
-        <v>94.495113792260426</v>
-      </c>
-      <c r="S12" s="14">
+        <v>92.927116492398696</v>
+      </c>
+      <c r="S12" s="57">
         <f t="shared" si="3"/>
         <v>31.210679404263807</v>
       </c>
@@ -5053,13 +3789,13 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="U12" s="12">
+      <c r="U12" s="56">
         <f t="shared" si="19"/>
-        <v>105.29548370603975</v>
-      </c>
-      <c r="V12" s="12">
+        <v>118.20676799574548</v>
+      </c>
+      <c r="V12" s="56">
         <f t="shared" si="20"/>
-        <v>26.730705419889329</v>
+        <v>23.155512902498522</v>
       </c>
       <c r="W12" s="12">
         <f t="shared" si="5"/>
@@ -5102,17 +3838,17 @@
       <c r="BF12" s="1"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A13" s="67">
+      <c r="A13" s="41">
         <v>728</v>
       </c>
-      <c r="B13" s="68">
+      <c r="B13" s="42">
         <v>576</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="56">
         <f t="shared" si="0"/>
         <v>144.22205101855957</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="56">
         <f t="shared" si="1"/>
         <v>128.24975633505119</v>
       </c>
@@ -5120,11 +3856,11 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="57">
         <f t="shared" si="7"/>
-        <v>75.063884637417388</v>
-      </c>
-      <c r="G13" s="14">
+        <v>73.909985458077486</v>
+      </c>
+      <c r="G13" s="57">
         <f t="shared" si="8"/>
         <v>41.787232972597948</v>
       </c>
@@ -5132,11 +3868,11 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="56">
         <f t="shared" si="10"/>
-        <v>81.51226901516111</v>
-      </c>
-      <c r="J13" s="12">
+        <v>80.258146004003848</v>
+      </c>
+      <c r="J13" s="56">
         <f t="shared" si="11"/>
         <v>36.799999999999955</v>
       </c>
@@ -5144,11 +3880,11 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="57">
         <f t="shared" si="13"/>
-        <v>88.583433504002471</v>
-      </c>
-      <c r="M13" s="14">
+        <v>87.194475416793921</v>
+      </c>
+      <c r="M13" s="57">
         <f t="shared" si="14"/>
         <v>32.008263395876931</v>
       </c>
@@ -5156,11 +3892,11 @@
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="56">
         <f t="shared" si="16"/>
-        <v>96.103541167846672</v>
-      </c>
-      <c r="P13" s="12">
+        <v>94.566857963030586</v>
+      </c>
+      <c r="P13" s="56">
         <f t="shared" si="17"/>
         <v>27.406406388125991</v>
       </c>
@@ -5168,11 +3904,11 @@
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="57">
         <f t="shared" si="2"/>
-        <v>104.95800909634953</v>
-      </c>
-      <c r="S13" s="14">
+        <v>103.19478313028291</v>
+      </c>
+      <c r="S13" s="57">
         <f t="shared" si="3"/>
         <v>22.937011768661957</v>
       </c>
@@ -5180,13 +3916,13 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="U13" s="12">
+      <c r="U13" s="56">
         <f t="shared" si="19"/>
-        <v>115.8237406099841</v>
-      </c>
-      <c r="V13" s="12">
+        <v>128.44313917060731</v>
+      </c>
+      <c r="V13" s="56">
         <f t="shared" si="20"/>
-        <v>18.553837822919149</v>
+        <v>15.685803914509528</v>
       </c>
       <c r="W13" s="12">
         <f t="shared" si="5"/>
@@ -5229,17 +3965,17 @@
       <c r="BF13" s="1"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A14" s="67">
+      <c r="A14" s="41">
         <v>740</v>
       </c>
-      <c r="B14" s="68">
+      <c r="B14" s="42">
         <v>576</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="56">
         <f t="shared" si="0"/>
         <v>148.64723340849636</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="56">
         <f t="shared" si="1"/>
         <v>129.55307792561317</v>
       </c>
@@ -5247,11 +3983,11 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="57">
         <f t="shared" si="7"/>
-        <v>80.76253324939421</v>
-      </c>
-      <c r="G14" s="14">
+        <v>79.251925961424092</v>
+      </c>
+      <c r="G14" s="57">
         <f t="shared" si="8"/>
         <v>43.230076407205701</v>
       </c>
@@ -5259,11 +3995,11 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="56">
         <f t="shared" si="10"/>
-        <v>87.105969944659904</v>
-      </c>
-      <c r="J14" s="12">
+        <v>85.485495845786602</v>
+      </c>
+      <c r="J14" s="56">
         <f t="shared" si="11"/>
         <v>38.70710529088938</v>
       </c>
@@ -5271,11 +4007,11 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="57">
         <f t="shared" si="13"/>
-        <v>94.11530883987308</v>
-      </c>
-      <c r="M14" s="14">
+        <v>92.348307383206617</v>
+      </c>
+      <c r="M14" s="57">
         <f t="shared" si="14"/>
         <v>34.438110736136217</v>
       </c>
@@ -5283,11 +4019,11 @@
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="56">
         <f t="shared" si="16"/>
-        <v>101.52285764792084</v>
-      </c>
-      <c r="P14" s="12">
+        <v>99.588606903601175</v>
+      </c>
+      <c r="P14" s="56">
         <f t="shared" si="17"/>
         <v>30.710114150082756</v>
       </c>
@@ -5295,11 +4031,11 @@
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R14" s="57">
         <f t="shared" si="2"/>
-        <v>110.35610263032626</v>
-      </c>
-      <c r="S14" s="14">
+        <v>108.17455659200806</v>
+      </c>
+      <c r="S14" s="57">
         <f t="shared" si="3"/>
         <v>27.139787164553709</v>
       </c>
@@ -5307,13 +4043,13 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="U14" s="12">
+      <c r="U14" s="56">
         <f t="shared" si="19"/>
-        <v>121.30597218970252</v>
-      </c>
-      <c r="V14" s="12">
+        <v>133.19474464107057</v>
+      </c>
+      <c r="V14" s="56">
         <f t="shared" si="20"/>
-        <v>23.741808469191135</v>
+        <v>22.477643213745548</v>
       </c>
       <c r="W14" s="12">
         <f t="shared" si="5"/>
@@ -5356,17 +4092,17 @@
       <c r="BF14" s="1"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A15" s="67">
+      <c r="A15" s="41">
         <v>732</v>
       </c>
-      <c r="B15" s="68">
+      <c r="B15" s="42">
         <v>584</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="56">
         <f t="shared" si="0"/>
         <v>153.10127367203711</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="56">
         <f t="shared" si="1"/>
         <v>120.59850745345068</v>
       </c>
@@ -5374,11 +4110,11 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="57">
         <f t="shared" si="7"/>
-        <v>84.002410433735093</v>
-      </c>
-      <c r="G15" s="14">
+        <v>82.832550395111468</v>
+      </c>
+      <c r="G15" s="57">
         <f t="shared" si="8"/>
         <v>33.920750049941709</v>
       </c>
@@ -5386,11 +4122,11 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="56">
         <f t="shared" si="10"/>
-        <v>90.449156988885164</v>
-      </c>
-      <c r="J15" s="12">
+        <v>89.177183180452602</v>
+      </c>
+      <c r="J15" s="56">
         <f t="shared" si="11"/>
         <v>29.07645095261795</v>
       </c>
@@ -5398,11 +4134,11 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="57">
         <f t="shared" si="13"/>
-        <v>97.519925156191221</v>
-      </c>
-      <c r="M15" s="14">
+        <v>96.112138722830153</v>
+      </c>
+      <c r="M15" s="57">
         <f t="shared" si="14"/>
         <v>24.461134631043112</v>
       </c>
@@ -5410,11 +4146,11 @@
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="56">
         <f t="shared" si="16"/>
-        <v>105.03756768413861</v>
-      </c>
-      <c r="P15" s="12">
+        <v>103.47893807437337</v>
+      </c>
+      <c r="P15" s="56">
         <f t="shared" si="17"/>
         <v>20.242968600918672</v>
       </c>
@@ -5422,11 +4158,11 @@
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="57">
         <f t="shared" si="2"/>
-        <v>113.89298593371745</v>
-      </c>
-      <c r="S15" s="14">
+        <v>112.10718267873503</v>
+      </c>
+      <c r="S15" s="57">
         <f t="shared" si="3"/>
         <v>16.246620039931113</v>
       </c>
@@ -5434,13 +4170,13 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="U15" s="12">
+      <c r="U15" s="56">
         <f t="shared" si="19"/>
-        <v>124.76299754156096</v>
-      </c>
-      <c r="V15" s="12">
+        <v>137.34642332438074</v>
+      </c>
+      <c r="V15" s="56">
         <f t="shared" si="20"/>
-        <v>12.522632571892093</v>
+        <v>11.203174153386602</v>
       </c>
       <c r="W15" s="12">
         <f t="shared" si="5"/>
@@ -5483,17 +4219,17 @@
       <c r="BF15" s="1"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A16" s="67">
+      <c r="A16" s="41">
         <v>732</v>
       </c>
-      <c r="B16" s="68">
+      <c r="B16" s="42">
         <v>584</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="56">
         <f t="shared" si="0"/>
         <v>153.10127367203711</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="56">
         <f t="shared" si="1"/>
         <v>120.59850745345068</v>
       </c>
@@ -5501,11 +4237,11 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="57">
         <f t="shared" si="7"/>
-        <v>84.002410433735093</v>
-      </c>
-      <c r="G16" s="14">
+        <v>82.832550395111468</v>
+      </c>
+      <c r="G16" s="57">
         <f t="shared" si="8"/>
         <v>33.920750049941709</v>
       </c>
@@ -5513,11 +4249,11 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="56">
         <f t="shared" si="10"/>
-        <v>90.449156988885164</v>
-      </c>
-      <c r="J16" s="12">
+        <v>89.177183180452602</v>
+      </c>
+      <c r="J16" s="56">
         <f t="shared" si="11"/>
         <v>29.07645095261795</v>
       </c>
@@ -5525,11 +4261,11 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="57">
         <f t="shared" si="13"/>
-        <v>97.519925156191221</v>
-      </c>
-      <c r="M16" s="14">
+        <v>96.112138722830153</v>
+      </c>
+      <c r="M16" s="57">
         <f t="shared" si="14"/>
         <v>24.461134631043112</v>
       </c>
@@ -5537,11 +4273,11 @@
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="56">
         <f t="shared" si="16"/>
-        <v>105.03756768413861</v>
-      </c>
-      <c r="P16" s="12">
+        <v>103.47893807437337</v>
+      </c>
+      <c r="P16" s="56">
         <f t="shared" si="17"/>
         <v>20.242968600918672</v>
       </c>
@@ -5549,11 +4285,11 @@
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16" s="57">
         <f t="shared" si="2"/>
-        <v>113.89298593371745</v>
-      </c>
-      <c r="S16" s="14">
+        <v>112.10718267873503</v>
+      </c>
+      <c r="S16" s="57">
         <f t="shared" si="3"/>
         <v>16.246620039931113</v>
       </c>
@@ -5561,13 +4297,13 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="U16" s="12">
+      <c r="U16" s="56">
         <f t="shared" si="19"/>
-        <v>124.76299754156096</v>
-      </c>
-      <c r="V16" s="12">
+        <v>137.34642332438074</v>
+      </c>
+      <c r="V16" s="56">
         <f t="shared" si="20"/>
-        <v>12.522632571892093</v>
+        <v>11.203174153386602</v>
       </c>
       <c r="W16" s="12">
         <f t="shared" si="5"/>
@@ -5610,17 +4346,17 @@
       <c r="BF16" s="1"/>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A17" s="67">
+      <c r="A17" s="41">
         <v>708</v>
       </c>
-      <c r="B17" s="68">
+      <c r="B17" s="42">
         <v>608</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="56">
         <f t="shared" si="0"/>
         <v>170.31735084835015</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="56">
         <f t="shared" si="1"/>
         <v>96.74709297958259</v>
       </c>
@@ -5628,11 +4364,11 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="57">
         <f t="shared" si="7"/>
-        <v>100.96464482249336</v>
-      </c>
-      <c r="G17" s="14">
+        <v>100.68923633660943</v>
+      </c>
+      <c r="G17" s="57">
         <f t="shared" si="8"/>
         <v>23.064054658362927</v>
       </c>
@@ -5640,11 +4376,11 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="56">
         <f t="shared" si="10"/>
-        <v>107.22802805237069</v>
-      </c>
-      <c r="J17" s="12">
+        <v>106.87829527083596</v>
+      </c>
+      <c r="J17" s="56">
         <f t="shared" si="11"/>
         <v>20.567936211491894</v>
       </c>
@@ -5652,11 +4388,11 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="57">
         <f t="shared" si="13"/>
-        <v>114.03275466199382</v>
-      </c>
-      <c r="M17" s="14">
+        <v>113.58496031551249</v>
+      </c>
+      <c r="M17" s="57">
         <f t="shared" si="14"/>
         <v>19.272727272727252</v>
       </c>
@@ -5664,11 +4400,11 @@
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="56">
         <f t="shared" si="16"/>
-        <v>121.43677624591325</v>
-      </c>
-      <c r="P17" s="12">
+        <v>120.88792588592129</v>
+      </c>
+      <c r="P17" s="56">
         <f t="shared" si="17"/>
         <v>18.595100907975127</v>
       </c>
@@ -5676,11 +4412,11 @@
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="57">
         <f t="shared" si="2"/>
-        <v>129.9501474271058</v>
-      </c>
-      <c r="S17" s="14">
+        <v>129.23961293280172</v>
+      </c>
+      <c r="S17" s="57">
         <f t="shared" si="3"/>
         <v>19.547544829869107</v>
       </c>
@@ -5688,13 +4424,13 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="U17" s="12">
+      <c r="U17" s="56">
         <f t="shared" si="19"/>
-        <v>140.19203099875381</v>
-      </c>
-      <c r="V17" s="12">
+        <v>154.17405748049831</v>
+      </c>
+      <c r="V17" s="56">
         <f t="shared" si="20"/>
-        <v>21.731196422635904</v>
+        <v>22.854126785136952</v>
       </c>
       <c r="W17" s="12">
         <f t="shared" si="5"/>
@@ -5737,17 +4473,17 @@
       <c r="BF17" s="1"/>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A18" s="67">
+      <c r="A18" s="41">
         <v>752</v>
       </c>
-      <c r="B18" s="68">
+      <c r="B18" s="42">
         <v>616</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="56">
         <f t="shared" si="0"/>
         <v>190.15782918407541</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="56">
         <f t="shared" si="1"/>
         <v>93.637599285757005</v>
       </c>
@@ -5755,11 +4491,11 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="57">
         <f t="shared" si="7"/>
-        <v>121.52233410344954</v>
-      </c>
-      <c r="G18" s="14">
+        <v>120.23369118457511</v>
+      </c>
+      <c r="G18" s="57">
         <f t="shared" si="8"/>
         <v>23.179386329609397</v>
       </c>
@@ -5767,11 +4503,11 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="56">
         <f t="shared" si="10"/>
-        <v>127.94784093528109</v>
-      </c>
-      <c r="J18" s="12">
+        <v>126.54710585390721</v>
+      </c>
+      <c r="J18" s="56">
         <f t="shared" si="11"/>
         <v>24.212393520674496</v>
       </c>
@@ -5779,11 +4515,11 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="57">
         <f t="shared" si="13"/>
-        <v>135.00914463769658</v>
-      </c>
-      <c r="M18" s="14">
+        <v>133.46405628852906</v>
+      </c>
+      <c r="M18" s="57">
         <f t="shared" si="14"/>
         <v>25.989190378480945</v>
       </c>
@@ -5791,11 +4527,11 @@
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="56">
         <f t="shared" si="16"/>
-        <v>142.49873902950861</v>
-      </c>
-      <c r="P18" s="12">
+        <v>140.78668482850216</v>
+      </c>
+      <c r="P18" s="56">
         <f t="shared" si="17"/>
         <v>28.921349284645132</v>
       </c>
@@ -5803,11 +4539,11 @@
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R18" s="57">
         <f t="shared" si="2"/>
-        <v>151.3563844112326</v>
-      </c>
-      <c r="S18" s="14">
+        <v>149.40651298537486</v>
+      </c>
+      <c r="S18" s="57">
         <f t="shared" si="3"/>
         <v>31.835375359187367</v>
       </c>
@@ -5815,13 +4551,13 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="U18" s="12">
+      <c r="U18" s="56">
         <f t="shared" si="19"/>
-        <v>162.2646158457091</v>
-      </c>
-      <c r="V18" s="12">
+        <v>174.56242436446624</v>
+      </c>
+      <c r="V18" s="56">
         <f t="shared" si="20"/>
-        <v>34.75981728892112</v>
+        <v>38.180856168736945</v>
       </c>
       <c r="W18" s="12">
         <f t="shared" si="5"/>
@@ -5864,17 +4600,17 @@
       <c r="BF18" s="1"/>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A19" s="67">
+      <c r="A19" s="41">
         <v>716</v>
       </c>
-      <c r="B19" s="68">
+      <c r="B19" s="42">
         <v>640</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="56">
         <f t="shared" si="0"/>
         <v>203.21417273408861</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="56">
         <f t="shared" si="1"/>
         <v>64.124878167525594</v>
       </c>
@@ -5882,11 +4618,11 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="57">
         <f t="shared" si="7"/>
-        <v>133.72035084984245</v>
-      </c>
-      <c r="G19" s="14">
+        <v>133.33810253178521</v>
+      </c>
+      <c r="G19" s="57">
         <f t="shared" si="8"/>
         <v>25.689504029543837</v>
       </c>
@@ -5894,11 +4630,11 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="56">
         <f t="shared" si="10"/>
-        <v>140.02946118585186</v>
-      </c>
-      <c r="J19" s="12">
+        <v>139.57854419644875</v>
+      </c>
+      <c r="J19" s="56">
         <f t="shared" si="11"/>
         <v>29.729446681699315</v>
       </c>
@@ -5906,11 +4642,11 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="57">
         <f t="shared" si="13"/>
-        <v>146.88136642361803</v>
-      </c>
-      <c r="M19" s="14">
+        <v>146.3397450717143</v>
+      </c>
+      <c r="M19" s="57">
         <f t="shared" si="14"/>
         <v>33.927487088867764</v>
       </c>
@@ -5918,11 +4654,11 @@
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="56">
         <f t="shared" si="16"/>
-        <v>154.31425930548349</v>
-      </c>
-      <c r="P19" s="12">
+        <v>153.67462583328452</v>
+      </c>
+      <c r="P19" s="56">
         <f t="shared" si="17"/>
         <v>38.005847503304565</v>
       </c>
@@ -5930,11 +4666,11 @@
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="R19" s="14">
+      <c r="R19" s="57">
         <f t="shared" si="2"/>
-        <v>162.8677314853488</v>
-      </c>
-      <c r="S19" s="14">
+        <v>162.07588295836828</v>
+      </c>
+      <c r="S19" s="57">
         <f t="shared" si="3"/>
         <v>42.251431123130821</v>
       </c>
@@ -5942,13 +4678,13 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="U19" s="12">
+      <c r="U19" s="56">
         <f t="shared" si="19"/>
-        <v>173.15254995395114</v>
-      </c>
-      <c r="V19" s="12">
+        <v>187.07870001686456</v>
+      </c>
+      <c r="V19" s="56">
         <f t="shared" si="20"/>
-        <v>46.564416650047065</v>
+        <v>49.592114068446243</v>
       </c>
       <c r="W19" s="12">
         <f t="shared" si="5"/>
@@ -5991,17 +4727,17 @@
       <c r="BF19" s="1"/>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A20" s="67">
+      <c r="A20" s="41">
         <v>732</v>
       </c>
-      <c r="B20" s="68">
+      <c r="B20" s="42">
         <v>672</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="56">
         <f t="shared" si="0"/>
         <v>237.75617762741729</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="56">
         <f t="shared" si="1"/>
         <v>34.176014981270121</v>
       </c>
@@ -6009,11 +4745,11 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="57">
         <f t="shared" si="7"/>
-        <v>168.04881718916587</v>
-      </c>
-      <c r="G20" s="14">
+        <v>167.46710544151256</v>
+      </c>
+      <c r="G20" s="57">
         <f t="shared" si="8"/>
         <v>54.311402072324768</v>
       </c>
@@ -6021,11 +4757,11 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="56">
         <f t="shared" si="10"/>
-        <v>174.43465825345601</v>
-      </c>
-      <c r="J20" s="12">
+        <v>173.77850845257015</v>
+      </c>
+      <c r="J20" s="56">
         <f t="shared" si="11"/>
         <v>59.334981250523754</v>
       </c>
@@ -6033,11 +4769,11 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="57">
         <f t="shared" si="13"/>
-        <v>181.3796577538771</v>
-      </c>
-      <c r="M20" s="14">
+        <v>180.62665266876036</v>
+      </c>
+      <c r="M20" s="57">
         <f t="shared" si="14"/>
         <v>64.174349295010515</v>
       </c>
@@ -6045,11 +4781,11 @@
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="56">
         <f t="shared" si="16"/>
-        <v>188.87268363900588</v>
-      </c>
-      <c r="P20" s="12">
+        <v>188.01034712217304</v>
+      </c>
+      <c r="P20" s="56">
         <f t="shared" si="17"/>
         <v>68.928304136335072</v>
       </c>
@@ -6057,11 +4793,11 @@
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R20" s="57">
         <f t="shared" si="2"/>
-        <v>197.533825571465</v>
-      </c>
-      <c r="S20" s="14">
+        <v>196.50959367970631</v>
+      </c>
+      <c r="S20" s="57">
         <f t="shared" si="3"/>
         <v>73.542967354719138</v>
       </c>
@@ -6069,13 +4805,13 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="U20" s="12">
+      <c r="U20" s="56">
         <f t="shared" si="19"/>
-        <v>207.98190359313045</v>
-      </c>
-      <c r="V20" s="12">
+        <v>221.6665062656061</v>
+      </c>
+      <c r="V20" s="56">
         <f t="shared" si="20"/>
-        <v>78.041851671041798</v>
+        <v>81.542899411564051</v>
       </c>
       <c r="W20" s="12">
         <f t="shared" si="5"/>
@@ -6118,17 +4854,17 @@
       <c r="BF20" s="1"/>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A21" s="69">
+      <c r="A21" s="43">
         <v>720</v>
       </c>
-      <c r="B21" s="70">
+      <c r="B21" s="44">
         <v>704</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="58">
         <f t="shared" si="0"/>
         <v>267.01310829245818</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6136,11 +4872,11 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="59">
         <f t="shared" si="7"/>
-        <v>197.70603856723855</v>
-      </c>
-      <c r="G21" s="15">
+        <v>197.38875934067164</v>
+      </c>
+      <c r="G21" s="59">
         <f t="shared" si="8"/>
         <v>86.679201372747286</v>
       </c>
@@ -6148,11 +4884,11 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="58">
         <f t="shared" si="10"/>
-        <v>203.97512103195328</v>
-      </c>
-      <c r="J21" s="13">
+        <v>203.60297149108604</v>
+      </c>
+      <c r="J21" s="58">
         <f t="shared" si="11"/>
         <v>91.55020480588783</v>
       </c>
@@ -6160,11 +4896,11 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="59">
         <f t="shared" si="13"/>
-        <v>210.77192049496492</v>
-      </c>
-      <c r="M21" s="15">
+        <v>210.32722888365299</v>
+      </c>
+      <c r="M21" s="59">
         <f t="shared" si="14"/>
         <v>96.275087961442395</v>
       </c>
@@ -6172,11 +4908,11 @@
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="56">
         <f t="shared" si="16"/>
-        <v>218.1602407062295</v>
-      </c>
-      <c r="P21" s="12">
+        <v>217.63476428410971</v>
+      </c>
+      <c r="P21" s="56">
         <f t="shared" si="17"/>
         <v>100.84531609240842</v>
       </c>
@@ -6184,11 +4920,11 @@
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R21" s="57">
         <f t="shared" si="2"/>
-        <v>226.63037424540482</v>
-      </c>
-      <c r="S21" s="14">
+        <v>225.98108102138073</v>
+      </c>
+      <c r="S21" s="57">
         <f t="shared" si="3"/>
         <v>105.36069352298789</v>
       </c>
@@ -6196,13 +4932,13 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="U21" s="13">
+      <c r="U21" s="58">
         <f t="shared" si="19"/>
-        <v>236.76529634968793</v>
-      </c>
-      <c r="V21" s="13">
+        <v>250.86418636385704</v>
+      </c>
+      <c r="V21" s="58">
         <f t="shared" si="20"/>
-        <v>109.82174796701518</v>
+        <v>113.11194062127625</v>
       </c>
       <c r="W21" s="13">
         <f t="shared" si="5"/>
@@ -6226,7 +4962,7 @@
       <c r="AM21" s="1"/>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="23"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11" t="s">
@@ -6258,11 +4994,11 @@
         <v>51</v>
       </c>
       <c r="T22" s="10"/>
-      <c r="U22" s="63"/>
+      <c r="U22" s="39"/>
       <c r="V22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="W22" s="66"/>
+      <c r="W22" s="40"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
@@ -6281,59 +5017,59 @@
       <c r="AM22" s="1"/>
     </row>
     <row r="23" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="52" t="s">
+      <c r="A23" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="37" t="s">
+      <c r="E23" s="27"/>
+      <c r="F23" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="37" t="s">
+      <c r="H23" s="27"/>
+      <c r="I23" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="38" t="s">
+      <c r="J23" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="37" t="s">
+      <c r="K23" s="27"/>
+      <c r="L23" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="M23" s="38" t="s">
+      <c r="M23" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="37" t="s">
+      <c r="N23" s="27"/>
+      <c r="O23" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="P23" s="38" t="s">
+      <c r="P23" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="37" t="s">
+      <c r="Q23" s="27"/>
+      <c r="R23" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="S23" s="38" t="s">
+      <c r="S23" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="T23" s="1"/>
-      <c r="U23" s="64" t="s">
+      <c r="T23" s="27"/>
+      <c r="U23" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="V23" s="65" t="s">
+      <c r="V23" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="W23" s="26"/>
+      <c r="W23" s="51"/>
       <c r="X23" s="26"/>
       <c r="Y23" s="8" t="s">
         <v>4</v>
@@ -6358,57 +5094,57 @@
       <c r="AO23" s="1"/>
     </row>
     <row r="24" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="47" t="s">
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="34" t="s">
+      <c r="E24" s="27"/>
+      <c r="F24" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="34" t="s">
+      <c r="H24" s="27"/>
+      <c r="I24" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="35" t="s">
+      <c r="J24" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="34" t="s">
+      <c r="K24" s="27"/>
+      <c r="L24" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="35" t="s">
+      <c r="M24" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="34" t="s">
+      <c r="N24" s="27"/>
+      <c r="O24" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="P24" s="35" t="s">
+      <c r="P24" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="34" t="s">
+      <c r="Q24" s="27"/>
+      <c r="R24" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="S24" s="35" t="s">
+      <c r="S24" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="T24" s="1"/>
-      <c r="U24" s="34" t="s">
+      <c r="T24" s="27"/>
+      <c r="U24" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="V24" s="35" t="s">
+      <c r="V24" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="W24" s="26"/>
+      <c r="W24" s="51"/>
       <c r="X24" s="26"/>
       <c r="Y24" s="24" t="s">
         <v>39</v>
@@ -6416,13 +5152,13 @@
       <c r="Z24" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AB24" s="54" t="s">
+      <c r="AB24" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="AC24" s="58" t="s">
+      <c r="AC24" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="AD24" s="59"/>
+      <c r="AD24" s="35"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
@@ -6436,84 +5172,84 @@
       <c r="AO24" s="1"/>
     </row>
     <row r="25" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="28" t="s">
+      <c r="A25" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="48">
+      <c r="B25" s="49"/>
+      <c r="C25" s="53">
         <v>680</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="53">
         <v>440</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="39">
-        <f>AVERAGE(A2:A12)</f>
-        <v>697</v>
-      </c>
-      <c r="G25" s="40">
-        <f>AVERAGE(B2:B12)</f>
+      <c r="E25" s="60"/>
+      <c r="F25" s="53">
+        <f>AVERAGEIF(E$2:E$21,1,$A$2:$A$21)</f>
+        <v>699.90909090909088</v>
+      </c>
+      <c r="G25" s="53">
+        <f>AVERAGEIF(E$2:E$21,1,$B$2:$B$21)</f>
         <v>507.63636363636363</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="39">
-        <f>AVERAGE(A2:A11)</f>
-        <v>694.7</v>
-      </c>
-      <c r="J25" s="40">
-        <f>AVERAGE(B2:B11)</f>
+      <c r="H25" s="60"/>
+      <c r="I25" s="53">
+        <f>AVERAGEIF(H$2:H$21,1,$A$2:$A$21)</f>
+        <v>697.9</v>
+      </c>
+      <c r="J25" s="53">
+        <f>AVERAGEIF(H$2:H$21,1,$B$2:$B$21)</f>
         <v>501.6</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="39">
-        <f>AVERAGE($A$2:$A$10)</f>
-        <v>691.88888888888891</v>
-      </c>
-      <c r="M25" s="40">
-        <f>AVERAGE($B$2:$B$10)</f>
+      <c r="K25" s="60"/>
+      <c r="L25" s="53">
+        <f>AVERAGEIF(K$2:K$21,1,$A$2:$A$21)</f>
+        <v>695.44444444444446</v>
+      </c>
+      <c r="M25" s="53">
+        <f>AVERAGEIF(K$2:K$21,1,$B$2:$B$21)</f>
         <v>495.11111111111109</v>
       </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="39">
-        <f>AVERAGE($A$2:$A$9)</f>
-        <v>689.375</v>
-      </c>
-      <c r="P25" s="40">
-        <f>AVERAGE($B$2:$B$9)</f>
+      <c r="N25" s="60"/>
+      <c r="O25" s="53">
+        <f>AVERAGEIF(N$2:N$21,1,$A$2:$A$21)</f>
+        <v>693.375</v>
+      </c>
+      <c r="P25" s="53">
+        <f>AVERAGEIF(N$2:N$21,1,$B$2:$B$21)</f>
         <v>488</v>
       </c>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="39">
-        <f>AVERAGE($A$2:$A$8)</f>
-        <v>685.57142857142856</v>
-      </c>
-      <c r="S25" s="40">
-        <f>AVERAGE($B$2:$B$8)</f>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="53">
+        <f>AVERAGEIF(Q$2:Q$21,1,$A$2:$A$21)</f>
+        <v>690.14285714285711</v>
+      </c>
+      <c r="S25" s="53">
+        <f>AVERAGEIF(Q$2:Q$21,1,$B$2:$B$21)</f>
         <v>480</v>
       </c>
-      <c r="T25" s="1"/>
-      <c r="U25" s="39">
+      <c r="T25" s="60"/>
+      <c r="U25" s="53">
         <f>AVERAGEIF(T$2:T$21,1,$A$2:$A$21)</f>
-        <v>679.83333333333337</v>
-      </c>
-      <c r="V25" s="40">
+        <v>682.2</v>
+      </c>
+      <c r="V25" s="53">
         <f>AVERAGEIF(T$2:T$21,1,$B$2:$B$21)</f>
-        <v>470.66666666666669</v>
-      </c>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="6">
+        <v>456</v>
+      </c>
+      <c r="W25" s="61"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="7">
         <f>AVERAGEIF(W$2:W$21,1,$A$2:$A$21)</f>
-        <v>679.83333333333337</v>
-      </c>
-      <c r="Z25" s="6">
+        <v>682.2</v>
+      </c>
+      <c r="Z25" s="7">
         <f>AVERAGEIF(W$2:W$21,1,$B$2:$B$21)</f>
-        <v>470.66666666666669</v>
+        <v>456</v>
       </c>
       <c r="AA25" s="1"/>
-      <c r="AB25" s="55"/>
-      <c r="AC25" s="53"/>
-      <c r="AD25" s="60"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="36"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
@@ -6527,35 +5263,35 @@
       <c r="AO25" s="1"/>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="26"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="51"/>
       <c r="X26" s="26"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="61"/>
-      <c r="AD26" s="62"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="38"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
@@ -6569,57 +5305,57 @@
       <c r="AO26" s="1"/>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="50" t="s">
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="34" t="s">
+      <c r="E27" s="27"/>
+      <c r="F27" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="34" t="s">
+      <c r="H27" s="27"/>
+      <c r="I27" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="35" t="s">
+      <c r="J27" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="34" t="s">
+      <c r="K27" s="27"/>
+      <c r="L27" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="35" t="s">
+      <c r="M27" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="34" t="s">
+      <c r="N27" s="27"/>
+      <c r="O27" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="P27" s="35" t="s">
+      <c r="P27" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="34" t="s">
+      <c r="Q27" s="27"/>
+      <c r="R27" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="S27" s="35" t="s">
+      <c r="S27" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="T27" s="1"/>
-      <c r="U27" s="34" t="s">
+      <c r="T27" s="27"/>
+      <c r="U27" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="V27" s="35" t="s">
+      <c r="V27" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="W27" s="26"/>
+      <c r="W27" s="51"/>
       <c r="X27" s="26"/>
       <c r="Y27" s="24" t="s">
         <v>41</v>
@@ -6644,79 +5380,79 @@
       <c r="AO27" s="1"/>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="30" t="s">
+      <c r="A28" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="51">
+      <c r="B28" s="49"/>
+      <c r="C28" s="53">
         <v>720</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="53">
         <v>704</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="43">
-        <f>AVERAGE(A13:A21)</f>
+      <c r="E28" s="60"/>
+      <c r="F28" s="53">
+        <f>AVERAGEIF(E$2:E$21,2,$A$2:$A$21)</f>
         <v>728.88888888888891</v>
       </c>
-      <c r="G28" s="44">
-        <f>AVERAGE(B13:B21)</f>
+      <c r="G28" s="53">
+        <f>AVERAGEIF(E$2:E$21,2,$B$2:$B$21)</f>
         <v>617.77777777777783</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="43">
-        <f>AVERAGE(A12:A21)</f>
+      <c r="H28" s="60"/>
+      <c r="I28" s="53">
+        <f>AVERAGEIF(H$2:H$21,2,$A$2:$A$21)</f>
         <v>728</v>
       </c>
-      <c r="J28" s="44">
-        <f>AVERAGE(B12:B21)</f>
+      <c r="J28" s="53">
+        <f>AVERAGEIF(H$2:H$21,2,$B$2:$B$21)</f>
         <v>612.79999999999995</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="43">
-        <f>AVERAGE($A$11:$A$21)</f>
+      <c r="K28" s="60"/>
+      <c r="L28" s="53">
+        <f>AVERAGEIF(K$2:K$21,2,$A$2:$A$21)</f>
         <v>727.27272727272725</v>
       </c>
-      <c r="M28" s="44">
-        <f>AVERAGE($B$11:$B$21)</f>
+      <c r="M28" s="53">
+        <f>AVERAGEIF(K$2:K$21,2,$B$2:$B$21)</f>
         <v>608</v>
       </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="43">
-        <f>AVERAGE($A$10:$A$21)</f>
+      <c r="N28" s="60"/>
+      <c r="O28" s="53">
+        <f>AVERAGEIF(N$2:N$21,2,$A$2:$A$21)</f>
         <v>726</v>
       </c>
-      <c r="P28" s="44">
-        <f>AVERAGE($B$10:$B$21)</f>
+      <c r="P28" s="53">
+        <f>AVERAGEIF(N$2:N$21,2,$B$2:$B$21)</f>
         <v>603.33333333333337</v>
       </c>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="43">
-        <f>AVERAGE($A$9:$A$21)</f>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="53">
+        <f>AVERAGEIF(Q$2:Q$21,2,$A$2:$A$21)</f>
         <v>725.23076923076928</v>
       </c>
-      <c r="S28" s="44">
-        <f>AVERAGE($B$9:$B$21)</f>
+      <c r="S28" s="53">
+        <f>AVERAGEIF(Q$2:Q$21,2,$B$2:$B$21)</f>
         <v>598.76923076923072</v>
       </c>
-      <c r="T28" s="1"/>
-      <c r="U28" s="43">
+      <c r="T28" s="60"/>
+      <c r="U28" s="53">
         <f>AVERAGEIF(T$2:T$21,2,$A$2:$A$21)</f>
-        <v>724.85714285714289</v>
-      </c>
-      <c r="V28" s="44">
+        <v>723.2</v>
+      </c>
+      <c r="V28" s="53">
         <f>AVERAGEIF(T$2:T$21,2,$B$2:$B$21)</f>
-        <v>594.28571428571433</v>
-      </c>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="6">
+        <v>590.93333333333328</v>
+      </c>
+      <c r="W28" s="61"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="7">
         <f>AVERAGEIF(W$2:W$21,2,$A$2:$A$21)</f>
-        <v>724.85714285714289</v>
-      </c>
-      <c r="Z28" s="6">
+        <v>723.2</v>
+      </c>
+      <c r="Z28" s="7">
         <f>AVERAGEIF(W$2:W$21,2,$B$2:$B$21)</f>
-        <v>594.28571428571433</v>
+        <v>590.93333333333328</v>
       </c>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
@@ -10594,12 +9330,299 @@
       <c r="AG136" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="AC24:AD26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="O22:Q22"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="AB24:AB26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="63"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="41">
+        <v>680</v>
+      </c>
+      <c r="C5" s="42">
+        <v>440</v>
+      </c>
+      <c r="D5" s="65">
+        <v>1</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="41">
+        <v>679</v>
+      </c>
+      <c r="C6" s="42">
+        <v>448</v>
+      </c>
+      <c r="D6" s="65">
+        <v>1</v>
+      </c>
+      <c r="E6" s="68"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="41">
+        <v>708</v>
+      </c>
+      <c r="C7" s="42">
+        <v>448</v>
+      </c>
+      <c r="D7" s="65">
+        <v>1</v>
+      </c>
+      <c r="E7" s="68"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="41">
+        <v>672</v>
+      </c>
+      <c r="C8" s="42">
+        <v>464</v>
+      </c>
+      <c r="D8" s="65">
+        <v>1</v>
+      </c>
+      <c r="E8" s="68"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="41">
+        <v>672</v>
+      </c>
+      <c r="C9" s="42">
+        <v>480</v>
+      </c>
+      <c r="D9" s="65">
+        <v>1</v>
+      </c>
+      <c r="E9" s="68"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="41">
+        <v>720</v>
+      </c>
+      <c r="C10" s="42">
+        <v>536</v>
+      </c>
+      <c r="D10" s="66">
+        <v>2</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="41">
+        <v>700</v>
+      </c>
+      <c r="C11" s="42">
+        <v>544</v>
+      </c>
+      <c r="D11" s="66">
+        <v>2</v>
+      </c>
+      <c r="E11" s="67"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="41">
+        <v>716</v>
+      </c>
+      <c r="C12" s="42">
+        <v>544</v>
+      </c>
+      <c r="D12" s="66">
+        <v>2</v>
+      </c>
+      <c r="E12" s="67"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="41">
+        <v>712</v>
+      </c>
+      <c r="C13" s="42">
+        <v>552</v>
+      </c>
+      <c r="D13" s="66">
+        <v>2</v>
+      </c>
+      <c r="E13" s="67"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="41">
+        <v>720</v>
+      </c>
+      <c r="C14" s="42">
+        <v>560</v>
+      </c>
+      <c r="D14" s="66">
+        <v>2</v>
+      </c>
+      <c r="E14" s="67"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="41">
+        <v>720</v>
+      </c>
+      <c r="C15" s="42">
+        <v>568</v>
+      </c>
+      <c r="D15" s="66">
+        <v>2</v>
+      </c>
+      <c r="E15" s="67"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="41">
+        <v>728</v>
+      </c>
+      <c r="C16" s="42">
+        <v>576</v>
+      </c>
+      <c r="D16" s="66">
+        <v>2</v>
+      </c>
+      <c r="E16" s="67"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="41">
+        <v>740</v>
+      </c>
+      <c r="C17" s="42">
+        <v>576</v>
+      </c>
+      <c r="D17" s="66">
+        <v>2</v>
+      </c>
+      <c r="E17" s="67"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="41">
+        <v>732</v>
+      </c>
+      <c r="C18" s="42">
+        <v>584</v>
+      </c>
+      <c r="D18" s="66">
+        <v>2</v>
+      </c>
+      <c r="E18" s="67"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="41">
+        <v>732</v>
+      </c>
+      <c r="C19" s="42">
+        <v>584</v>
+      </c>
+      <c r="D19" s="66">
+        <v>2</v>
+      </c>
+      <c r="E19" s="67"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="41">
+        <v>708</v>
+      </c>
+      <c r="C20" s="42">
+        <v>608</v>
+      </c>
+      <c r="D20" s="66">
+        <v>2</v>
+      </c>
+      <c r="E20" s="67"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="41">
+        <v>752</v>
+      </c>
+      <c r="C21" s="42">
+        <v>616</v>
+      </c>
+      <c r="D21" s="66">
+        <v>2</v>
+      </c>
+      <c r="E21" s="67"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="41">
+        <v>716</v>
+      </c>
+      <c r="C22" s="42">
+        <v>640</v>
+      </c>
+      <c r="D22" s="66">
+        <v>2</v>
+      </c>
+      <c r="E22" s="67"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="41">
+        <v>732</v>
+      </c>
+      <c r="C23" s="42">
+        <v>672</v>
+      </c>
+      <c r="D23" s="66">
+        <v>2</v>
+      </c>
+      <c r="E23" s="67"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="43">
+        <v>720</v>
+      </c>
+      <c r="C24" s="44">
+        <v>704</v>
+      </c>
+      <c r="D24" s="66">
+        <v>2</v>
+      </c>
+      <c r="E24" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E10:E24"/>
+    <mergeCell ref="E5:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>